--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA8AB3-E30C-4FFC-9B00-3A7FA5996DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C9FA8-D711-415A-8D20-A5C99E8E04E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6740,9 +6740,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7851,36 +7851,36 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="C81" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="G81" t="s">
-        <v>1984</v>
+      <c r="F81" t="s">
+        <v>2003</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="C82" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="F82" t="s">
-        <v>2003</v>
+      <c r="G82" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C9FA8-D711-415A-8D20-A5C99E8E04E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E11BE4-089A-4F0A-85AA-0419E982B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6070,9 +6070,6 @@
     <t>select_one laboratory_results</t>
   </si>
   <si>
-    <t>Where samples collected for laboratory confirmation?</t>
-  </si>
-  <si>
     <t>Laboratory results</t>
   </si>
   <si>
@@ -6211,9 +6208,6 @@
     <t>Outbreak Location Name</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Record the final outcome information of the case&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>case_outcome_title</t>
   </si>
   <si>
@@ -6224,6 +6218,12 @@
   </si>
   <si>
     <t>../outbreak_location/name</t>
+  </si>
+  <si>
+    <t>Were samples collected for laboratory confirmation?</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case). This form is only filled once, but can be updated.&lt;/h4&gt;</t>
   </si>
 </sst>
 </file>
@@ -6740,9 +6740,9 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7324,7 +7324,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7576,7 +7576,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>29</v>
@@ -7585,7 +7585,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="17" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -7648,7 +7648,7 @@
         <v>1958</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7659,7 +7659,7 @@
         <v>1959</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7670,7 +7670,7 @@
         <v>1942</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7681,7 +7681,7 @@
         <v>1941</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7689,10 +7689,10 @@
         <v>44</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7725,7 +7725,7 @@
         <v>2005</v>
       </c>
       <c r="C71" t="s">
-        <v>2009</v>
+        <v>2059</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -7736,16 +7736,16 @@
         <v>2007</v>
       </c>
       <c r="B72" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C72" t="s">
         <v>2024</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2025</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -7753,33 +7753,33 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C73" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B74" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C74" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -7790,13 +7790,13 @@
         <v>2006</v>
       </c>
       <c r="C75" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -7896,7 +7896,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>29</v>
@@ -7944,7 +7944,7 @@
         <v>38</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -8045,84 +8045,84 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>2030</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>2031</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>2036</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>2012</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>2013</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>1944</v>
@@ -8133,46 +8133,46 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>2016</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>2018</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>2020</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>2022</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -8180,10 +8180,10 @@
         <v>2000</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8191,10 +8191,10 @@
         <v>2000</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8202,10 +8202,10 @@
         <v>2000</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -8213,10 +8213,10 @@
         <v>2000</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>2047</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E11BE4-089A-4F0A-85AA-0419E982B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F4D4C-44DD-4D3B-A2D2-ED8855C02E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7980" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7985" uniqueCount="2065">
   <si>
     <t>form_title</t>
   </si>
@@ -6085,9 +6085,6 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>co_meta</t>
-  </si>
-  <si>
     <t>not_tested</t>
   </si>
   <si>
@@ -6223,7 +6220,22 @@
     <t>Were samples collected for laboratory confirmation?</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case). This form is only filled once, but can be updated.&lt;/h4&gt;</t>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case).&lt;/h4&gt; &lt;p&gt;This is to be filled only once, but can be updated.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>selected(${col_consent}, 'yes')</t>
+  </si>
+  <si>
+    <t>col_sample_type_other</t>
+  </si>
+  <si>
+    <t>Samples collected (other)</t>
+  </si>
+  <si>
+    <t>selected(${col_sample_type}, 'other')</t>
+  </si>
+  <si>
+    <t>co_created</t>
   </si>
 </sst>
 </file>
@@ -6737,12 +6749,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7324,7 +7336,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7576,7 +7588,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>29</v>
@@ -7585,7 +7597,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="17" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -7648,7 +7660,7 @@
         <v>1958</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7659,7 +7671,7 @@
         <v>1959</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7670,7 +7682,7 @@
         <v>1942</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7681,7 +7693,7 @@
         <v>1941</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7689,10 +7701,10 @@
         <v>44</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -7725,7 +7737,7 @@
         <v>2005</v>
       </c>
       <c r="C71" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -7736,10 +7748,10 @@
         <v>2007</v>
       </c>
       <c r="B72" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C72" t="s">
         <v>2023</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2024</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -7753,97 +7765,100 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C73" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>2010</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B74" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C74" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>2010</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>2008</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>2006</v>
+        <v>2061</v>
       </c>
       <c r="C75" t="s">
-        <v>2009</v>
+        <v>2062</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B77" s="15" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
+    <row r="79" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B79" s="15" t="s">
         <v>1991</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H79" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1997</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B80" t="s">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="C80" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -7851,100 +7866,114 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>1993</v>
       </c>
       <c r="B81" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="C81" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" t="s">
-        <v>2003</v>
-      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="C82" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="15" t="s">
+    <row r="86" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C85" s="15" t="s">
+      <c r="B86" s="15" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H86" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C87" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="15" t="s">
+    <row r="89" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>2014</v>
+      <c r="B89" s="15" t="s">
+        <v>2064</v>
       </c>
     </row>
   </sheetData>
@@ -7957,8 +7986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:E2005"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8045,68 +8074,68 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>2029</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>2030</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>2035</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -8136,10 +8165,10 @@
         <v>2011</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>2015</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -8147,10 +8176,10 @@
         <v>2011</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>2017</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -8158,10 +8187,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>2019</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -8169,10 +8198,10 @@
         <v>2011</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>2021</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -8180,10 +8209,10 @@
         <v>2000</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8191,10 +8220,10 @@
         <v>2000</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8202,10 +8231,10 @@
         <v>2000</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -8213,10 +8242,10 @@
         <v>2000</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>2046</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F4D4C-44DD-4D3B-A2D2-ED8855C02E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7BC820-BAC7-43C0-89E7-52A65F6AA380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7985" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="2064">
   <si>
     <t>form_title</t>
   </si>
@@ -6109,12 +6109,6 @@
     <t>Indeterminate</t>
   </si>
   <si>
-    <t>col_consent</t>
-  </si>
-  <si>
-    <t>Did you obtain the patient's express and/or informed consent prior the collection of laboratory testing samples?</t>
-  </si>
-  <si>
     <t>Date of sample collection</t>
   </si>
   <si>
@@ -6217,15 +6211,9 @@
     <t>../outbreak_location/name</t>
   </si>
   <si>
-    <t>Were samples collected for laboratory confirmation?</t>
-  </si>
-  <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case).&lt;/h4&gt; &lt;p&gt;This is to be filled only once, but can be updated.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>selected(${col_consent}, 'yes')</t>
-  </si>
-  <si>
     <t>col_sample_type_other</t>
   </si>
   <si>
@@ -6236,6 +6224,15 @@
   </si>
   <si>
     <t>co_created</t>
+  </si>
+  <si>
+    <t>col_sample_information</t>
+  </si>
+  <si>
+    <t>col_consented_information</t>
+  </si>
+  <si>
+    <t>Did the patient consent to sample collection (express and/or informed) for laboratory confirmation?</t>
   </si>
 </sst>
 </file>
@@ -6749,12 +6746,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7336,7 +7333,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7588,7 +7585,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>29</v>
@@ -7597,7 +7594,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="17" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -7660,7 +7657,7 @@
         <v>1958</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7671,10 +7668,10 @@
         <v>1959</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>44</v>
       </c>
@@ -7682,10 +7679,10 @@
         <v>1942</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>44</v>
       </c>
@@ -7693,21 +7690,21 @@
         <v>1941</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7712,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>27</v>
       </c>
@@ -7729,7 +7726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2007</v>
       </c>
@@ -7737,243 +7734,239 @@
         <v>2005</v>
       </c>
       <c r="C71" t="s">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C74" t="s">
         <v>2022</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>2041</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2027</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
-      <c r="F74" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>2039</v>
       </c>
       <c r="B75" t="s">
-        <v>2061</v>
+        <v>2023</v>
       </c>
       <c r="C75" t="s">
-        <v>2062</v>
+        <v>2025</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>2008</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>2006</v>
+        <v>2057</v>
       </c>
       <c r="C76" t="s">
-        <v>2009</v>
+        <v>2058</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B78" s="18" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="15" t="s">
+    <row r="81" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>1991</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H81" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1997</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>1999</v>
       </c>
       <c r="B82" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C82" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="F82" t="s">
-        <v>2003</v>
-      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>1993</v>
       </c>
       <c r="B83" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C83" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
-      <c r="G83" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>1991</v>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C86" s="15" t="s">
+      <c r="B88" s="15" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H88" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>43</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>1980</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>1982</v>
       </c>
-      <c r="E87" t="b">
+      <c r="E89" t="b">
         <v>1</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G89" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>41</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>1981</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>1983</v>
       </c>
-      <c r="E88" t="b">
+      <c r="E90" t="b">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G90" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="15" t="s">
+    <row r="91" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>2064</v>
+      <c r="B91" s="15" t="s">
+        <v>2060</v>
       </c>
     </row>
   </sheetData>
@@ -8074,68 +8067,68 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>2028</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>2030</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -8209,10 +8202,10 @@
         <v>2000</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8220,10 +8213,10 @@
         <v>2000</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8231,10 +8224,10 @@
         <v>2000</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -8242,10 +8235,10 @@
         <v>2000</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB62663-4210-4A79-B021-A43E0470724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD3FA6-23DC-42F4-9481-3357496A543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6181,9 +6181,6 @@
     <t>outbreak_location_name</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case).&lt;/h4&gt; &lt;p&gt;This is to be filled only once, but can be updated.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>col_sample_type_other</t>
   </si>
   <si>
@@ -6251,6 +6248,9 @@
   </si>
   <si>
     <t>../cases_group/outbreak_location/ol_subcounty</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to record lab data and results (if any samples were taken), final patient status (recovered, hospitalized, referred or alive) and final case classification (confirmed, suspected, probable or non case etc.).&lt;/h4&gt; &lt;p&gt;This form can only be filled once, but can be updated once submitted&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -6758,9 +6758,9 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7384,7 +7384,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>29</v>
@@ -7398,16 +7398,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E44" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>2060</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7418,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7564,7 +7564,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7628,7 +7628,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -7651,7 +7651,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -7674,7 +7674,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -7697,7 +7697,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -7720,7 +7720,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -7743,7 +7743,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -7766,7 +7766,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="16" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -7827,7 +7827,7 @@
         <v>2043</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>2046</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7860,7 +7860,7 @@
         <v>1996</v>
       </c>
       <c r="C81" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -7874,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>29</v>
@@ -7897,7 +7897,7 @@
         <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -7919,16 +7919,16 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C86" t="s">
         <v>2047</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2048</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -7950,7 +7950,7 @@
         <v>38</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8028,13 +8028,13 @@
         <v>1987</v>
       </c>
       <c r="C95" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8050,7 +8050,7 @@
         <v>27</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>29</v>
@@ -8098,7 +8098,7 @@
         <v>38</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -8111,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:E2007"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8345,10 +8345,10 @@
         <v>1991</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD21CD-93C9-4A1D-A741-0C6901C7EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80AF768-1D58-4526-A9A3-ECF969C26051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8056" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="2088">
   <si>
     <t>form_title</t>
   </si>
@@ -6271,9 +6271,6 @@
     <t>col_lab_results_date</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>outbreak_disease</t>
   </si>
   <si>
@@ -6305,6 +6302,9 @@
   </si>
   <si>
     <t>${disease_name} != ''</t>
+  </si>
+  <si>
+    <t>Results date</t>
   </si>
 </sst>
 </file>
@@ -6797,9 +6797,9 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7565,10 +7565,10 @@
         <v>31</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7576,10 +7576,10 @@
         <v>31</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>2082</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7690,13 +7690,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -7704,13 +7704,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -7799,13 +7799,13 @@
         <v>44</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>2085</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>2086</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7992,10 +7992,13 @@
         <v>2074</v>
       </c>
       <c r="C95" t="s">
-        <v>2076</v>
+        <v>2087</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2066</v>
       </c>
       <c r="J95" t="s">
         <v>2049</v>
@@ -8043,10 +8046,13 @@
         <v>2075</v>
       </c>
       <c r="C99" t="s">
-        <v>2076</v>
+        <v>2087</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2070</v>
       </c>
       <c r="J99" t="s">
         <v>2049</v>

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80AF768-1D58-4526-A9A3-ECF969C26051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CC1B58-8E7B-4846-8DF9-C3E472298CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6797,9 +6797,9 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8224,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:E2007"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CC1B58-8E7B-4846-8DF9-C3E472298CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A79D63-9572-4BC5-A833-D45F37F871A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="2097">
   <si>
     <t>form_title</t>
   </si>
@@ -5899,15 +5899,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>ci_case_id</t>
-  </si>
-  <si>
     <t>../../inputs/contact/patient_id</t>
   </si>
   <si>
-    <t>ci_case_name</t>
-  </si>
-  <si>
     <t>../../inputs/contact/name</t>
   </si>
   <si>
@@ -6142,12 +6136,6 @@
     <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
   </si>
   <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>Outbreak Location Name</t>
   </si>
   <si>
@@ -6172,9 +6160,6 @@
     <t>co_created</t>
   </si>
   <si>
-    <t>col_sample_information</t>
-  </si>
-  <si>
     <t>col_consented_information</t>
   </si>
   <si>
@@ -6305,6 +6290,48 @@
   </si>
   <si>
     <t>Results date</t>
+  </si>
+  <si>
+    <t>${col_rdt_results} != 'pending'</t>
+  </si>
+  <si>
+    <t>${col_lab_results} != 'pending'</t>
+  </si>
+  <si>
+    <t>col_rdt_test</t>
+  </si>
+  <si>
+    <t>col_rdt_group</t>
+  </si>
+  <si>
+    <t>col_lab_group</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>case_uuid</t>
+  </si>
+  <si>
+    <t>../../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>${case_uuid}</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${case_id}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${case_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>col_case_id</t>
+  </si>
+  <si>
+    <t>Unique Case ID</t>
   </si>
 </sst>
 </file>
@@ -6794,12 +6821,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7423,7 +7450,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>29</v>
@@ -7437,16 +7464,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="E44" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7457,7 +7484,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7465,7 +7492,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>29</v>
@@ -7479,7 +7506,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7490,7 +7517,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7498,10 +7525,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7509,10 +7536,10 @@
         <v>31</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7535,7 +7562,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7565,10 +7592,10 @@
         <v>31</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7576,10 +7603,10 @@
         <v>31</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7590,7 +7617,7 @@
         <v>41</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -7617,7 +7644,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -7625,7 +7652,7 @@
         <v>38</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -7634,27 +7661,27 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>1952</v>
+        <v>2090</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>1954</v>
+        <v>2088</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -7662,13 +7689,13 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>1961</v>
+        <v>2089</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>2055</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -7676,13 +7703,13 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -7690,13 +7717,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>2076</v>
+        <v>1958</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>2077</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -7704,13 +7731,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -7718,13 +7745,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>1956</v>
+        <v>2073</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>2057</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -7732,13 +7759,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -7746,13 +7773,13 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>2038</v>
+        <v>1955</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -7760,13 +7787,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>1968</v>
+        <v>2034</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -7774,24 +7801,27 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>2032</v>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2056</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7799,13 +7829,10 @@
         <v>44</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>2084</v>
+        <v>1956</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>2086</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7813,10 +7840,13 @@
         <v>44</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>1959</v>
+        <v>2079</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>2037</v>
+        <v>2080</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7824,7 +7854,7 @@
         <v>44</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>1942</v>
+        <v>1957</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>2033</v>
@@ -7835,10 +7865,10 @@
         <v>44</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>2034</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7846,372 +7876,447 @@
         <v>44</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>2036</v>
+        <v>1941</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="10" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
+    <row r="86" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B86" s="13" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>1995</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="B87" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="F89" s="14" t="s">
         <v>1996</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>2023</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>2007</v>
+        <v>2095</v>
       </c>
       <c r="C90" t="s">
-        <v>2009</v>
+        <v>2096</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2092</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>2039</v>
+        <v>2006</v>
       </c>
       <c r="C91" t="s">
-        <v>2040</v>
+        <v>2004</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
-      <c r="F91" t="s">
-        <v>2041</v>
+      <c r="J91" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1997</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>2063</v>
+        <v>2035</v>
       </c>
       <c r="C93" t="s">
-        <v>2064</v>
+        <v>2036</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F93" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F94" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" t="s">
-        <v>2066</v>
-      </c>
-      <c r="J95" t="s">
-        <v>2049</v>
+    </row>
+    <row r="96" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1997</v>
+        <v>2067</v>
       </c>
       <c r="B97" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="C97" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
-      <c r="M97" t="s">
-        <v>2071</v>
+      <c r="I97" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>2072</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C98" t="s">
-        <v>2073</v>
+        <v>2082</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C99" t="s">
+        <v>2083</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C102" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D103" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="s">
-        <v>2070</v>
-      </c>
-      <c r="J99" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>42</v>
+      <c r="I103" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>1990</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>1988</v>
+        <v>2070</v>
       </c>
       <c r="C104" t="s">
-        <v>1989</v>
+        <v>2082</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="F104" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J104" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B110" t="s">
         <v>1986</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C110" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D110" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="J107" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>1983</v>
       </c>
       <c r="B111" t="s">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="C111" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1934</v>
+        <v>1984</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>41</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C118" t="s">
         <v>1973</v>
       </c>
-      <c r="C112" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E112" t="b">
+      <c r="E118" t="b">
         <v>1</v>
       </c>
-      <c r="G112" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="13" t="s">
+      <c r="G118" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>2042</v>
+      <c r="B119" s="13" t="s">
+        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -8311,84 +8416,84 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
         <v>2010</v>
       </c>
-      <c r="B11" t="s">
-        <v>2012</v>
-      </c>
       <c r="C11" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B14" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C15" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C17" t="s">
         <v>1999</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="s">
         <v>1944</v>
@@ -8399,51 +8504,51 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B19" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C19" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B20" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B22" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C22" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B23" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="C23" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B24" t="s">
         <v>1944</v>
@@ -8454,46 +8559,46 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B25" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B26" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B27" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C27" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B28" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C28" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -8501,10 +8606,10 @@
         <v>1945</v>
       </c>
       <c r="B30" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C30" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -8512,10 +8617,10 @@
         <v>1945</v>
       </c>
       <c r="B31" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C31" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -8545,10 +8650,10 @@
         <v>1945</v>
       </c>
       <c r="B34" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C34" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -35429,10 +35534,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_outcome.xlsx
+++ b/config/forms/app/case_outcome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41B302F-2A3E-4F8C-A2AE-421FCA023134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98901B-3907-458C-ACEF-ACEB7E146C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6313,9 +6313,6 @@
     <t>../../inputs/contact/_id</t>
   </si>
   <si>
-    <t>${case_uuid}</t>
-  </si>
-  <si>
     <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${case_id}&lt;/h4&gt;</t>
   </si>
   <si>
@@ -6325,9 +6322,6 @@
     <t>col_case_id</t>
   </si>
   <si>
-    <t>Unique Case ID</t>
-  </si>
-  <si>
     <t>serum</t>
   </si>
   <si>
@@ -6341,6 +6335,12 @@
   </si>
   <si>
     <t>Lamu Central</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>${case_id}</t>
   </si>
 </sst>
 </file>
@@ -6534,9 +6534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6574,7 +6574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6680,7 +6680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6822,7 +6822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6832,10 +6832,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7877,7 +7877,7 @@
         <v>1942</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7888,7 +7888,7 @@
         <v>1941</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7932,7 +7932,7 @@
         <v>1994</v>
       </c>
       <c r="C87" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -7946,7 +7946,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>29</v>
@@ -7960,10 +7960,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C90" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>2090</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -8177,7 +8177,7 @@
         <v>38</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8338,7 +8338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:E2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
@@ -8439,10 +8439,10 @@
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C11" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -11674,10 +11674,10 @@
         <v>298</v>
       </c>
       <c r="B305" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C305" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D305" t="s">
         <v>255</v>
